--- a/Notes/포트폴리오진행상황.xlsx
+++ b/Notes/포트폴리오진행상황.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,6 +47,18 @@
   </si>
   <si>
     <t>SQL 테이블 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스토리보드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna,리뷰,공지사항 관련 안함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인화면 html 박스 배치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -451,14 +463,14 @@
   <dimension ref="B3:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.125" customWidth="1"/>
     <col min="3" max="3" width="57.375" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="4" max="4" width="40.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="22.5" x14ac:dyDescent="0.3">
@@ -505,13 +517,21 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="2"/>
+      <c r="B8" s="4">
+        <v>43690</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">

--- a/Notes/포트폴리오진행상황.xlsx
+++ b/Notes/포트폴리오진행상황.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,35 +30,45 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>요구사항명세서,논리적물리적설계,ER다이어그램</t>
+    <t>온라인 ERD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스프링프로젝트생성및 DB연동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL 테이블 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스토리보드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna,리뷰,공지사항 관련 안함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>논리적물리적설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ER다이어그램</t>
+  </si>
+  <si>
+    <t>요구사항명세서</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>~8/9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>온라인 ERD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스프링프로젝트생성및 DB연동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SQL 테이블 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스토리보드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qna,리뷰,공지사항 관련 안함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인화면 html 박스 배치</t>
+  </si>
+  <si>
+    <t xml:space="preserve">메인화면 html 박스 배치 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인화면 html -header</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D21"/>
+  <dimension ref="B3:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -485,68 +495,76 @@
       </c>
     </row>
     <row r="4" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B5" s="2"/>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B7" s="4">
+        <v>43689</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B8" s="2"/>
+      <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="4">
-        <v>43689</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="2"/>
-      <c r="C6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="2"/>
-      <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="4">
-        <v>43690</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="2"/>
+      <c r="B10" s="4">
+        <v>43690</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
+      <c r="B11" s="4">
+        <v>43691</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -593,6 +611,16 @@
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
       <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Notes/포트폴리오진행상황.xlsx
+++ b/Notes/포트폴리오진행상황.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,6 +69,18 @@
   </si>
   <si>
     <t>메인화면 html -header</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인화면 html -middle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>틀잡음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,7 +485,7 @@
   <dimension ref="B3:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -565,12 +577,18 @@
       <c r="C12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="2"/>
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
